--- a/data/output/results/betting_analysis_20220301_20220317.xlsx
+++ b/data/output/results/betting_analysis_20220301_20220317.xlsx
@@ -26632,5002 +26632,5002 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>132.6026851079205</v>
+        <v>126.677730804249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97.18028111401233</v>
+        <v>32.17482653863374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>46.66128377248992</v>
+        <v>98.72280688199966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67.29476898066264</v>
+        <v>68.76627558548883</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101.1683762896433</v>
+        <v>104.8393566494865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>78.96066257781757</v>
+        <v>85.05623867640119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93.51227771748098</v>
+        <v>117.2311602620925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>126.0306568987493</v>
+        <v>96.21832741014757</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>77.49741253524125</v>
+        <v>104.6520504912645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>65.89763428161905</v>
+        <v>108.2494407318966</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>85.12349030893051</v>
+        <v>90.72790986934811</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>93.53725046189849</v>
+        <v>86.36791813936524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131.8027958539482</v>
+        <v>52.83527136266258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>92.53580080190662</v>
+        <v>109.0121891778726</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>84.65700314693815</v>
+        <v>113.430557390224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>94.97688460712466</v>
+        <v>124.8257896836471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>103.026558633256</v>
+        <v>99.41278105566973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>99.70041390725834</v>
+        <v>49.80920628009811</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111.1237353365867</v>
+        <v>102.9484308324934</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>97.58770625829372</v>
+        <v>113.1737857119618</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>103.9002367800353</v>
+        <v>41.67853996885122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>92.56314145126447</v>
+        <v>131.3044471496854</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>72.40068218859388</v>
+        <v>110.3308909758078</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111.3019376088252</v>
+        <v>97.79341940900621</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>83.49115295450123</v>
+        <v>93.19906702506475</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>120.9451459977404</v>
+        <v>58.33725264138739</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104.9496369034279</v>
+        <v>55.84768815436707</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>132.9588785841957</v>
+        <v>111.165203811949</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>80.84427837491855</v>
+        <v>67.17516138836413</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>75.813219456046</v>
+        <v>92.56579708264636</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>70.21167524407331</v>
+        <v>55.84231712485902</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>125.8424480562353</v>
+        <v>111.9504934083324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>118.0645988932134</v>
+        <v>53.81787053954175</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>102.4446844338931</v>
+        <v>117.4830722141148</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>66.17152668245328</v>
+        <v>77.26004331927751</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>79.93913534960708</v>
+        <v>108.1440599566058</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>135.4205827054094</v>
+        <v>70.87851150439433</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>45.96130754908501</v>
+        <v>106.7208870578821</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>108.3740148738452</v>
+        <v>95.40249664626315</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>98.08652985666556</v>
+        <v>93.89315939228162</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>89.42918466253489</v>
+        <v>97.19775688546569</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>54.06846972244783</v>
+        <v>69.11391444105546</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>124.1952290812389</v>
+        <v>124.9406568818344</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>55.25204015406902</v>
+        <v>83.20505212255156</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>100.0925948232968</v>
+        <v>138.79980983366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>106.9018184395747</v>
+        <v>138.5365276459958</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>65.92044177805899</v>
+        <v>102.7614597006983</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>89.12800378441692</v>
+        <v>109.4877682372952</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>84.95361601742491</v>
+        <v>62.78654903518009</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>90.7744926590324</v>
+        <v>55.97872239036966</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>53.7985729177731</v>
+        <v>79.14367125745127</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>78.12394871921383</v>
+        <v>94.76110535932943</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>87.99278784040038</v>
+        <v>50.52918752859097</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>135.6931853259761</v>
+        <v>86.0928030199627</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>75.63486119890709</v>
+        <v>69.16322739378973</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>69.81590524851826</v>
+        <v>87.99761705539633</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>107.3770358492192</v>
+        <v>98.22158386564826</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>72.80051473714504</v>
+        <v>115.2011791736492</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>57.38560963893448</v>
+        <v>112.4740545346666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>80.38217765635495</v>
+        <v>88.05261062828752</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>127.4331521329729</v>
+        <v>94.67193522512586</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>61.24721912506335</v>
+        <v>75.52856339713179</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>92.0804361655933</v>
+        <v>76.91629441056162</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>68.47866625122002</v>
+        <v>109.1071644825103</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>39.95497280501884</v>
+        <v>97.15939871493201</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>81.91932645222934</v>
+        <v>76.10555628783675</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>103.2616920260416</v>
+        <v>70.11541507264319</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>105.2249928120514</v>
+        <v>63.86284185270446</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>109.8535819129528</v>
+        <v>100.7724357958339</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>54.66646526199727</v>
+        <v>116.9715750758247</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>91.38810779340351</v>
+        <v>113.978143029419</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>63.60787224308095</v>
+        <v>111.6472427873921</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>80.6831588221489</v>
+        <v>112.020140705111</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>100.7421935209925</v>
+        <v>70.0426731918356</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>46.86123869416265</v>
+        <v>106.5877735983379</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>48.67157806370287</v>
+        <v>70.44665564430188</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>57.51087145251454</v>
+        <v>61.86589043980823</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>69.64639448135731</v>
+        <v>116.2064252506631</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>130.7240761596466</v>
+        <v>76.78183543992292</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112.7652934011728</v>
+        <v>51.58793023547671</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>87.25022287300457</v>
+        <v>88.08532443577232</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>72.75844062583542</v>
+        <v>99.66636216632419</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>84.12982360647673</v>
+        <v>81.39661469291795</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>132.4602586404361</v>
+        <v>142.3988283636251</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>75.16376851918342</v>
+        <v>123.1084355003405</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>103.4317969352152</v>
+        <v>78.5681608660784</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>110.2942608277282</v>
+        <v>35.59859630575411</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>109.2996963012514</v>
+        <v>79.41247291284246</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>69.54374096009961</v>
+        <v>51.93461617508179</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>105.9174039737082</v>
+        <v>91.79750268912387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>88.12876016458864</v>
+        <v>95.5788899538781</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>76.37220746679141</v>
+        <v>50.5165199627447</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>101.9401032953809</v>
+        <v>91.67460943252773</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>145.5110331670466</v>
+        <v>108.6350859784624</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>113.9505697203207</v>
+        <v>88.61344599802433</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>105.5816648569177</v>
+        <v>110.5265416472465</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>93.71023110429951</v>
+        <v>77.94009472863927</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>83.81694175270026</v>
+        <v>102.0309939510073</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>58.27932066654471</v>
+        <v>120.9416737457642</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>90.23978508231176</v>
+        <v>68.18279408013647</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>64.95417127116784</v>
+        <v>80.17564701948393</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>54.42401492499529</v>
+        <v>89.53820676429608</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>98.32778346008379</v>
+        <v>83.95129880951471</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>96.18676186165668</v>
+        <v>89.72499496281192</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>83.59025762851385</v>
+        <v>121.5230978403638</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>84.01802644462741</v>
+        <v>112.5752638800811</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>88.55342276604554</v>
+        <v>77.64067731199573</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>107.4289547667902</v>
+        <v>72.21183284594382</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112.6180295476874</v>
+        <v>114.4783595395488</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>44.08436500583656</v>
+        <v>78.17264907861724</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>108.7626824386426</v>
+        <v>115.7584520204155</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>103.8278004655542</v>
+        <v>69.43025471605272</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>69.7814199588764</v>
+        <v>93.16311365177596</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>83.11400866878746</v>
+        <v>119.4798599377653</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>84.01331000342086</v>
+        <v>100.0097601175896</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>71.24263909172586</v>
+        <v>95.62206132305668</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>103.6078209445813</v>
+        <v>109.7573351440246</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>96.31823805729947</v>
+        <v>112.6625189071029</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>76.3883842421083</v>
+        <v>115.1401487013703</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>116.3701571685314</v>
+        <v>68.44363065999845</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>124.9164928035799</v>
+        <v>114.9033300382855</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>74.22766170983323</v>
+        <v>89.33279063818348</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>106.7401005196182</v>
+        <v>67.568211425055</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>112.3400326243816</v>
+        <v>70.31404292099883</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>90.17961391867321</v>
+        <v>84.46657990781574</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>66.79712849938701</v>
+        <v>97.0243009130018</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>94.46823264419886</v>
+        <v>83.12725553400595</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>80.66940776288565</v>
+        <v>48.96312114630588</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>102.6025214639349</v>
+        <v>121.6203088324125</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>36.67016750047389</v>
+        <v>77.34361326798839</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>127.9219451207999</v>
+        <v>61.84156151144168</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>53.34571046724025</v>
+        <v>54.80369597025597</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>125.7156274303797</v>
+        <v>44.66316245621827</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>73.51595698199357</v>
+        <v>94.85773048115286</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>105.6307234902701</v>
+        <v>95.97539859020007</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>73.99087795356891</v>
+        <v>90.3248954928728</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>64.04926360915717</v>
+        <v>66.91335406568633</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>108.7211757824794</v>
+        <v>121.2667345696956</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>94.6456200354118</v>
+        <v>67.33832987798398</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>68.76918629958448</v>
+        <v>93.81762054943168</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>115.6190732375208</v>
+        <v>76.49949950969477</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111.6356748564972</v>
+        <v>120.3072224017921</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>56.70069838305989</v>
+        <v>83.39218903994694</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>62.43895402126984</v>
+        <v>88.88541197520831</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>66.81929109469449</v>
+        <v>61.80941362592493</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>74.33278137400448</v>
+        <v>73.33550919604779</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>60.24280138568199</v>
+        <v>106.9448470071104</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>99.93278436880975</v>
+        <v>98.61849686475763</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>104.3153915277878</v>
+        <v>70.85713267096278</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>105.6806066290446</v>
+        <v>80.28182397583292</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>82.42435083684786</v>
+        <v>79.14045821962362</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>102.4020639249506</v>
+        <v>80.25021656185839</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>79.90427899224743</v>
+        <v>83.62908738356393</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>63.92816813106352</v>
+        <v>120.4739282150258</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>77.96742285771673</v>
+        <v>95.70828944941917</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>115.5822076268146</v>
+        <v>82.74914376694582</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>89.73959511500526</v>
+        <v>102.9000599130712</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>76.29668035734673</v>
+        <v>66.66264191022516</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>89.69826948664912</v>
+        <v>83.12765855683504</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>89.07498430280697</v>
+        <v>106.679560316163</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>113.7473120763932</v>
+        <v>61.43322135088191</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>96.44441440227608</v>
+        <v>138.3307164985885</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>90.44638960843446</v>
+        <v>69.43952956067977</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>108.0401618863905</v>
+        <v>122.2013140174942</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>54.02917711674681</v>
+        <v>123.7153079650173</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>79.38511738253239</v>
+        <v>86.51261600919922</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>94.90714375948387</v>
+        <v>72.32381423472445</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>125.7325289852325</v>
+        <v>129.6052676567257</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>90.71368057356318</v>
+        <v>68.72963808559351</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>66.59287763815377</v>
+        <v>101.8102970482783</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>122.6137013175343</v>
+        <v>101.0579513683363</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>57.14571445431177</v>
+        <v>71.56243496821577</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>123.4465486923677</v>
+        <v>124.2205450257933</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>83.99864619360483</v>
+        <v>76.48011946280566</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>80.85852927900123</v>
+        <v>92.42319082470688</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>82.679052938403</v>
+        <v>109.4009148059782</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>86.98428686204993</v>
+        <v>88.09686649518864</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>26.94121000901915</v>
+        <v>76.21563300685268</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>118.916553308359</v>
+        <v>62.39372908549916</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>90.03192601153417</v>
+        <v>90.2515231196026</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>89.69386593914061</v>
+        <v>49.46946607829085</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>143.6411973352639</v>
+        <v>91.16564707954267</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>110.4095531393359</v>
+        <v>100.4832309100097</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>134.7270020962219</v>
+        <v>75.6160448845576</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>125.716555332313</v>
+        <v>67.01565459620021</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>62.74238491565135</v>
+        <v>118.177265652995</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>77.17178948233524</v>
+        <v>115.8870087491251</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>96.42188272731967</v>
+        <v>92.86218626663067</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>81.55214741762964</v>
+        <v>55.49363006909427</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>118.9834364093545</v>
+        <v>115.7306284778516</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>59.25636487052073</v>
+        <v>75.26688807246373</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>107.1811937412066</v>
+        <v>72.93924936365613</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>64.20394896181227</v>
+        <v>90.69555377760551</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>86.62815977442645</v>
+        <v>73.34681966266962</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>85.04683060115191</v>
+        <v>129.9869695105388</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>40.7500885744028</v>
+        <v>126.0501831696692</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>109.6441896666215</v>
+        <v>108.8934222910435</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>79.53815831929047</v>
+        <v>84.99668461046069</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>97.36924059913569</v>
+        <v>72.4958030623966</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>56.88562956057353</v>
+        <v>73.70699320253432</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>79.51142861325373</v>
+        <v>70.65410742607824</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>85.97316372998255</v>
+        <v>95.33783833876328</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>97.2034820531547</v>
+        <v>51.04702455756986</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>92.93915711153828</v>
+        <v>101.3336266236286</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>86.14233820977272</v>
+        <v>106.2678672836836</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>83.25678824865906</v>
+        <v>61.71321160827632</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>68.76108604660062</v>
+        <v>110.0215187679133</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>121.3739941187284</v>
+        <v>68.58135653650092</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>109.8718624203732</v>
+        <v>58.94425047770456</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>108.029172647208</v>
+        <v>84.82204917922702</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>94.26083642603189</v>
+        <v>102.0000343839521</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>94.51391325977188</v>
+        <v>107.6515301112842</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>73.18464631301438</v>
+        <v>84.91157032983777</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>34.76835662492694</v>
+        <v>100.6383090711239</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>120.4851342944463</v>
+        <v>87.77650279941996</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>151.5739739945779</v>
+        <v>145.306075697907</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>114.2250061260257</v>
+        <v>113.7202725031759</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>79.05133487117517</v>
+        <v>86.53729318549431</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>66.31744921643424</v>
+        <v>64.88512437246071</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>109.3816180282656</v>
+        <v>100.649998235461</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>120.2886917477651</v>
+        <v>83.16070457994068</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>124.2668248117991</v>
+        <v>75.07119339856825</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>58.71431049335629</v>
+        <v>114.7973929751033</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>80.0200282303348</v>
+        <v>118.6600704740606</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>88.84159656567768</v>
+        <v>85.05362045659875</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>68.91755000391284</v>
+        <v>85.56908356035537</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>84.87412305897546</v>
+        <v>138.3005692453187</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>67.32937784596673</v>
+        <v>83.42653526467589</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>129.471980803888</v>
+        <v>125.431411270549</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>137.0359976402112</v>
+        <v>87.87396637390293</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>125.8549292222851</v>
+        <v>98.47862120685232</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>69.46137747650842</v>
+        <v>91.93380722634903</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>54.32788791610945</v>
+        <v>51.28077443078403</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>107.5800466408464</v>
+        <v>25.5590757125857</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>108.1170923196274</v>
+        <v>97.43039622674301</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>63.20807655950648</v>
+        <v>111.0864601582105</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>99.97762664542253</v>
+        <v>75.0460464935715</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>105.1791329202148</v>
+        <v>62.53841976559722</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>124.7589112357907</v>
+        <v>59.19700784236446</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>114.5549125415694</v>
+        <v>112.7265485636494</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>100.4498585277931</v>
+        <v>67.74422292670796</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>98.51671685405637</v>
+        <v>82.28275369081922</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>106.5463555634606</v>
+        <v>78.79161002834995</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>95.74792822486765</v>
+        <v>93.63091325868048</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>69.48582125545408</v>
+        <v>92.57946105821064</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>71.22026799339746</v>
+        <v>66.17684450924541</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>105.0734090701231</v>
+        <v>75.2811086117168</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>84.54070769716299</v>
+        <v>62.80321998647337</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>86.97469065327856</v>
+        <v>102.8766287638547</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>68.67157091826957</v>
+        <v>40.1122411773154</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>114.0013843237915</v>
+        <v>130.7473584366119</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>122.3646689991771</v>
+        <v>101.3279849398834</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>91.62700576580271</v>
+        <v>82.95184988033007</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>98.1944474655624</v>
+        <v>104.3932255163699</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>67.64540629613997</v>
+        <v>63.33065494736078</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>110.2430654037536</v>
+        <v>67.76182605505713</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>90.96462327755513</v>
+        <v>103.6641074302039</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>62.80450356921935</v>
+        <v>84.82912317161205</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>68.71125346221662</v>
+        <v>105.0758139791304</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>88.57277515236365</v>
+        <v>82.17492372541217</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>82.59731144939461</v>
+        <v>60.43919562409673</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>97.72040060078736</v>
+        <v>132.090730126303</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>109.7026568428174</v>
+        <v>73.16018520333242</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>84.01544674882089</v>
+        <v>125.1317906591357</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>122.2279695090019</v>
+        <v>74.99556861513221</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>103.6462481812811</v>
+        <v>71.54067864511455</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>95.99377437141449</v>
+        <v>122.8303757205987</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>90.3041604440204</v>
+        <v>53.76242774266297</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>69.39937982407154</v>
+        <v>89.85027217121983</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>62.51018937236262</v>
+        <v>72.7361951745259</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>85.71725660925968</v>
+        <v>97.98370294465626</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>52.60908240017351</v>
+        <v>71.17067260497564</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>69.49000861924041</v>
+        <v>81.10247550128243</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>70.45678090541981</v>
+        <v>91.27356607441361</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>63.73099286215213</v>
+        <v>77.04112938831848</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>116.0705692184917</v>
+        <v>104.3061111104471</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>106.5678452451734</v>
+        <v>98.14069887123473</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>103.8439861678864</v>
+        <v>106.0118827273196</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>119.3936504612223</v>
+        <v>97.49329727399321</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>95.41570975497021</v>
+        <v>101.0338069894042</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>95.00357758258663</v>
+        <v>123.5440602711316</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>81.10445122499063</v>
+        <v>78.97298429481731</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>113.1162587598457</v>
+        <v>66.87545008664077</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>87.33344314984541</v>
+        <v>103.0348432897038</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>101.6296702006643</v>
+        <v>112.8221190997301</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>70.78382295305528</v>
+        <v>64.52771698074243</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>75.40916836356698</v>
+        <v>115.3285730090923</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>124.8912606675205</v>
+        <v>50.00718085440378</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>79.51923741939629</v>
+        <v>106.5022111709258</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>84.15657164300674</v>
+        <v>114.9457190954303</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>93.80954685607227</v>
+        <v>118.9873488729841</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>111.0140745708799</v>
+        <v>120.1728574286254</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>104.1420879409606</v>
+        <v>60.30183299133166</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>86.33997012147385</v>
+        <v>117.3028827317934</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>80.80929049346922</v>
+        <v>77.42953140692016</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>44.17676289988052</v>
+        <v>86.16010568711235</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>135.8340596620509</v>
+        <v>96.46834892453479</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>72.23077154561958</v>
+        <v>52.47909286839587</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>64.14089876875697</v>
+        <v>106.1183975993203</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>77.89577504831287</v>
+        <v>76.35577369334304</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>41.35064891826218</v>
+        <v>73.55626561771358</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>83.73322884091178</v>
+        <v>116.8909203026271</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>99.04063922271772</v>
+        <v>73.73094001893462</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>87.81548566845156</v>
+        <v>78.72623739055108</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>83.94852518216173</v>
+        <v>66.41205438678209</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>119.5257722523298</v>
+        <v>72.08521186070143</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>98.45650476830679</v>
+        <v>110.9184042972533</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>94.13352906033577</v>
+        <v>100.5201535924044</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>65.63439352420448</v>
+        <v>78.86392197249101</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>92.67764604610171</v>
+        <v>82.63107887522493</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>76.73587327483374</v>
+        <v>81.85539372855926</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>91.22451590586294</v>
+        <v>79.39134655031516</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>59.17164418504144</v>
+        <v>109.911007459818</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>105.9614052828991</v>
+        <v>87.90634788294012</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>121.5863680364209</v>
+        <v>66.76085552990429</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>127.4636898690727</v>
+        <v>84.14780481378604</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>86.04979206208189</v>
+        <v>113.2116974466375</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>93.26380090527161</v>
+        <v>65.71699114786954</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>76.70984014592538</v>
+        <v>55.01566361550024</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>74.35581821071219</v>
+        <v>65.24196526821828</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>54.66327699231352</v>
+        <v>51.66448559040049</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>115.6847739393033</v>
+        <v>81.14860103061213</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>124.7955303351022</v>
+        <v>72.96288255287755</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>60.38000448205191</v>
+        <v>65.87167565244653</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>100.435036678057</v>
+        <v>104.5339113072031</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>66.1100156372335</v>
+        <v>77.44827172637163</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>105.0465039451225</v>
+        <v>124.4534601332249</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>94.95700725921259</v>
+        <v>102.121161568639</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>43.18153523516865</v>
+        <v>36.38563658767294</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>120.8330480008743</v>
+        <v>108.8551362279428</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>111.0912424353398</v>
+        <v>120.086594212523</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>49.51790701142906</v>
+        <v>95.55936059637449</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>70.90444945387495</v>
+        <v>108.4108739271112</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>98.76220398137055</v>
+        <v>104.5660965499999</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>109.9787004913242</v>
+        <v>88.98721279070017</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>100.99185955611</v>
+        <v>57.2461119832008</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>96.68526228245088</v>
+        <v>115.5509020704463</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>91.05099207798736</v>
+        <v>142.9635313016655</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>76.40192084457701</v>
+        <v>57.9300429127229</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>109.0115588180433</v>
+        <v>134.2260077562252</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>124.2647809309849</v>
+        <v>101.7895533497482</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>71.62741184087116</v>
+        <v>48.75516475070545</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>108.2363509625094</v>
+        <v>139.5059584817982</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>75.94662593975943</v>
+        <v>115.2488534392876</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>96.99675120909153</v>
+        <v>99.93813158463843</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>89.06384091660577</v>
+        <v>111.1181712596399</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>121.0251415668946</v>
+        <v>89.58029522885211</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>79.23480130030345</v>
+        <v>81.35206598426099</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>104.6389536176853</v>
+        <v>118.8971337045932</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>83.36365435441519</v>
+        <v>94.03756073883491</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>99.76407489450914</v>
+        <v>47.4793494431352</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>84.70576894967917</v>
+        <v>107.9954462504494</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>20.63476492057786</v>
+        <v>87.19050347793906</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>110.2723228533929</v>
+        <v>77.08349529376083</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>148.1854653615051</v>
+        <v>74.69552476166173</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>84.96996405066463</v>
+        <v>76.92221598534663</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>53.89724519954765</v>
+        <v>136.0614335966442</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>55.41779768162746</v>
+        <v>103.3598655406524</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>78.48037525758998</v>
+        <v>124.9911627483438</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>59.82691012520357</v>
+        <v>89.49201846241722</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>99.93642560823127</v>
+        <v>97.0532871517845</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>79.51451401157289</v>
+        <v>85.37965164122865</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>64.15992819067755</v>
+        <v>110.7540083382842</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>105.1720965967035</v>
+        <v>109.4991762743066</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>152.653461618689</v>
+        <v>142.5061297231313</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>45.15111516677473</v>
+        <v>120.9580421466355</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>95.83491352494931</v>
+        <v>120.1100322815564</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>135.4700840697401</v>
+        <v>40.42647280365966</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>65.4231127591334</v>
+        <v>80.91437560870374</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>104.7974585117131</v>
+        <v>106.8213798284408</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>58.1347178135187</v>
+        <v>90.86414978824079</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>74.79075306384937</v>
+        <v>94.03390228790306</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>86.29543619952537</v>
+        <v>91.83251648931676</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>87.82505615653805</v>
+        <v>50.7170211702657</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>91.37734817861393</v>
+        <v>85.73392043282593</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>128.5449953887723</v>
+        <v>89.83711607824634</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>53.28497112351825</v>
+        <v>89.38634368050475</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>95.14311271837242</v>
+        <v>114.5407255361388</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>118.4312145338846</v>
+        <v>103.3973814098787</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>65.72808651102423</v>
+        <v>79.62734852142648</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>101.1311651393145</v>
+        <v>121.622905815116</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>124.0160050337212</v>
+        <v>98.26585622330299</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>97.28821221495402</v>
+        <v>123.3333557819536</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>79.3102916282478</v>
+        <v>55.99344777728159</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>56.85722895467394</v>
+        <v>60.60624016325529</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>72.52102867036082</v>
+        <v>48.11747071944092</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>54.91047189453835</v>
+        <v>82.88812988530103</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>74.21567936700228</v>
+        <v>93.41585638538274</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>135.156797831386</v>
+        <v>86.73184590173729</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>125.1849784003761</v>
+        <v>58.44558459159708</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>104.4520984916217</v>
+        <v>80.54203661155864</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>83.84037134720582</v>
+        <v>43.53696525371194</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>68.44941521576567</v>
+        <v>96.34087097196853</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>79.51287484350297</v>
+        <v>77.12235828517365</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>97.80849261094787</v>
+        <v>75.77686803364851</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>104.9125980673523</v>
+        <v>87.59521363653107</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>102.740613528445</v>
+        <v>90.27589978450547</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>100.2497364755298</v>
+        <v>87.08490547953346</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>108.742463279024</v>
+        <v>70.11553440182401</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>58.11884294384616</v>
+        <v>70.6645800478734</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>76.58542895705762</v>
+        <v>103.5090896859267</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>82.44978599356205</v>
+        <v>129.9850968003798</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>120.0091153632846</v>
+        <v>101.1171458354565</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>85.51173193679628</v>
+        <v>94.29667583711165</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>113.9285733177559</v>
+        <v>123.8679597565646</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>90.4940347732871</v>
+        <v>74.28824000777308</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>73.19786429149792</v>
+        <v>105.9941202867706</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>86.86071977940647</v>
+        <v>74.64474303824279</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>57.03734671118328</v>
+        <v>98.53927363990985</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>59.28485754881146</v>
+        <v>96.80931171687881</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>82.47249807589395</v>
+        <v>91.68831395382993</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>86.4937666181843</v>
+        <v>99.22628819973175</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>106.0865351216351</v>
+        <v>90.65666331950246</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>133.0110616706072</v>
+        <v>63.41677434466102</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>83.31794883297597</v>
+        <v>77.35110395580394</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>62.49101089483345</v>
+        <v>92.1008299242089</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>120.8035363217457</v>
+        <v>46.61986598458154</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>120.4324907647731</v>
+        <v>54.61054353903864</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>71.44780629030467</v>
+        <v>94.81427454389427</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>73.90709673647083</v>
+        <v>80.08410561861916</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>50.69271038467046</v>
+        <v>108.6456010361932</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>99.48163032674361</v>
+        <v>94.55155478215578</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>83.3925141234831</v>
+        <v>77.28936016118708</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>108.6160185621835</v>
+        <v>83.07625788264311</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>68.49805733180945</v>
+        <v>104.6503424951233</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>28.31639615638142</v>
+        <v>75.71658376461814</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>129.2717801831656</v>
+        <v>42.83536831989263</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>123.5911170704175</v>
+        <v>86.85792381900941</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>67.94737032578909</v>
+        <v>79.41348234395277</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>134.4059347030043</v>
+        <v>69.37708625930352</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>92.94953050705402</v>
+        <v>76.41876872052282</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>97.33458712001847</v>
+        <v>100.928008916293</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>124.9070510585445</v>
+        <v>97.50407530396316</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>105.7524042741188</v>
+        <v>89.6069087390601</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>99.93273740472931</v>
+        <v>71.85011314051297</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>62.07974087166349</v>
+        <v>105.0317205682652</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>92.626913983392</v>
+        <v>100.392255187101</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>106.8499010358945</v>
+        <v>76.88115827040626</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>76.50567469910546</v>
+        <v>117.7562219870297</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>112.3066246512792</v>
+        <v>109.4365539541817</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>131.1956809168211</v>
+        <v>135.9537103186948</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>108.2332478602532</v>
+        <v>93.53219989592448</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>83.67496279937619</v>
+        <v>92.24284930558454</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>94.12760345743186</v>
+        <v>64.72921309985168</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>81.08109816977419</v>
+        <v>44.30190124630838</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>100.8015472356736</v>
+        <v>48.88985195248948</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>72.68783403733764</v>
+        <v>95.68976972228597</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>57.66577638367315</v>
+        <v>47.57527209813634</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>89.84734514268357</v>
+        <v>134.5681681871017</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>118.201009754019</v>
+        <v>117.7754454461526</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>55.10857211625859</v>
+        <v>124.8263277912997</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>131.4333632348336</v>
+        <v>56.14261365944205</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>72.66660392667839</v>
+        <v>107.1991940724796</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>66.99918937621899</v>
+        <v>107.8615686457595</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>94.25507491827543</v>
+        <v>110.4433149902644</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>44.81292945248119</v>
+        <v>98.15883959961866</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>130.5580193371341</v>
+        <v>71.70133838445497</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>88.3119062912597</v>
+        <v>73.06895527748236</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>89.92261706924533</v>
+        <v>51.37149893347799</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>119.4817290992131</v>
+        <v>80.53447728169159</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>85.03535186512077</v>
+        <v>96.48331007891285</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>68.50222638138004</v>
+        <v>108.5048810742587</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>96.658054251555</v>
+        <v>87.85414641478091</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>74.84755092850952</v>
+        <v>101.9704042447561</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>80.27141487718058</v>
+        <v>103.9890694428508</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>75.35851562342766</v>
+        <v>81.71351558742968</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>96.70078857683576</v>
+        <v>70.97196015282492</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>77.2326490786172</v>
+        <v>103.1823778429731</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>61.84336008137791</v>
+        <v>57.80760585216857</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>100.3589225075033</v>
+        <v>95.17669605009083</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>111.8298430150002</v>
+        <v>96.59523248430625</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>92.72873746290533</v>
+        <v>105.3901910666567</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>105.7539588263148</v>
+        <v>98.98559194585881</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>93.97909241396228</v>
+        <v>113.312645346647</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>95.43098451880549</v>
+        <v>118.5082076402468</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>63.41194016420508</v>
+        <v>92.7064064186511</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>80.3852303259026</v>
+        <v>86.40459617070942</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>49.04980331873355</v>
+        <v>129.459276508116</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>62.05526745470996</v>
+        <v>119.9669275675</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>46.07229505770492</v>
+        <v>112.3472286118615</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>107.7235784607505</v>
+        <v>95.19582462824236</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>115.3503753830934</v>
+        <v>109.2228500832269</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>79.50931076824227</v>
+        <v>72.23262094045428</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>95.18769232339723</v>
+        <v>102.7909748345027</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>57.66475100878586</v>
+        <v>92.76087900887744</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>59.83194211234965</v>
+        <v>96.24634925816372</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>66.85589139884621</v>
+        <v>97.14880634862013</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>117.2682109411898</v>
+        <v>113.8172692470525</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>89.72245799536537</v>
+        <v>93.21602645614016</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>97.73989836781712</v>
+        <v>53.37409345256329</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>49.83918070853689</v>
+        <v>89.34698773518456</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>79.96174705875038</v>
+        <v>97.34343798447649</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>79.05257986070821</v>
+        <v>78.692487584633</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>76.15327034235051</v>
+        <v>89.4387668256046</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>120.2580254295765</v>
+        <v>112.9862052919978</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>100.2106121629445</v>
+        <v>100.3992117235033</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>84.56829875426654</v>
+        <v>55.29989814887191</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>76.98342417601773</v>
+        <v>96.74027584010429</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>105.9384896102916</v>
+        <v>115.7073639053202</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>87.08016868419969</v>
+        <v>129.0101067745394</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>128.4017372036743</v>
+        <v>52.59751275288825</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>62.65374721112936</v>
+        <v>79.19024820184332</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>95.45420175119743</v>
+        <v>84.22780051156722</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>131.6716212762011</v>
+        <v>95.38470721296386</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>106.5946520742305</v>
+        <v>73.24915628553796</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>119.8775787659098</v>
+        <v>71.01867786993323</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>120.926403022487</v>
+        <v>107.7999869759019</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>90.42152439343253</v>
+        <v>65.7039531273002</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>82.69367734481013</v>
+        <v>77.78807380470982</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>97.73558120429617</v>
+        <v>114.9297480725394</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>77.11834607768013</v>
+        <v>70.0255054063969</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>131.3677476221472</v>
+        <v>65.51528612737577</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>99.97819323827369</v>
+        <v>76.29583389135858</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>127.1061867688546</v>
+        <v>129.7980819289543</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>87.77254870084742</v>
+        <v>83.3223317790487</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>126.4265490206337</v>
+        <v>82.36774890514469</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>90.86858056022366</v>
+        <v>120.2226433478908</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>55.81997875696702</v>
+        <v>127.4954669985547</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>85.73315869373165</v>
+        <v>89.58635244093402</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>128.5219571747005</v>
+        <v>84.97339883278323</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>99.07037951000757</v>
+        <v>90.74718924553082</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>134.2567511723525</v>
+        <v>39.74897293999594</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>97.63909396004782</v>
+        <v>70.54488788597746</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>61.80013164300391</v>
+        <v>98.36368256085636</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>113.4188155373071</v>
+        <v>97.51128246594361</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>89.83137303033054</v>
+        <v>83.41003750646586</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>102.5963268385083</v>
+        <v>52.56782338925621</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>58.53208415981764</v>
+        <v>100.0191134876181</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>82.35412022484887</v>
+        <v>80.46177079747825</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>106.2673595622059</v>
+        <v>87.50489583549736</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>51.6402792910411</v>
+        <v>69.37927760979007</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>76.1796714737917</v>
+        <v>92.03236516518369</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>79.8985127602146</v>
+        <v>90.81117895295083</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>92.27022488820161</v>
+        <v>83.30864649639173</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>106.140175413263</v>
+        <v>50.38491892809444</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>70.99082461373605</v>
+        <v>64.8843346447142</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>94.86648977139193</v>
+        <v>53.9238347540596</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>74.18654317063979</v>
+        <v>58.30322598104862</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>86.53022024477524</v>
+        <v>98.70745313386867</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>118.8852498311065</v>
+        <v>103.3196711455129</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>119.2938746850944</v>
+        <v>100.6850356972462</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>55.09926524000924</v>
+        <v>70.54119070213555</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>94.18637972413433</v>
+        <v>63.08060101329859</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>136.5030548991877</v>
+        <v>104.3433075572879</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>162.4100054012885</v>
+        <v>85.08896790478974</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>79.40504071174331</v>
+        <v>79.88526082334823</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>95.31943965637186</v>
+        <v>93.56824387011113</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>104.7249135779822</v>
+        <v>74.71583807407467</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>127.6836203780432</v>
+        <v>123.8221949140693</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>88.26171391119212</v>
+        <v>126.8276445243522</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>68.41947197858707</v>
+        <v>65.43131525178991</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>96.57095788656106</v>
+        <v>67.73641366095268</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>109.9232418906164</v>
+        <v>54.71733051588716</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>121.7456146334028</v>
+        <v>74.83714979307584</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>71.5741376472418</v>
+        <v>97.40499898282968</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>87.99731036662044</v>
+        <v>90.40957307552138</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>126.7695796532895</v>
+        <v>90.86127890722705</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>38.03015284619732</v>
+        <v>93.23514732124174</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>117.8690543921809</v>
+        <v>97.65596243423028</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>77.6892278676924</v>
+        <v>43.4485950679162</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>73.76424090512664</v>
+        <v>89.0571763126916</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>83.52931169411943</v>
+        <v>79.95496489132665</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>88.44427389743485</v>
+        <v>94.27752721599755</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>124.0129614915491</v>
+        <v>65.75490662786837</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>64.94117652129387</v>
+        <v>71.83002956156645</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>96.32296391988068</v>
+        <v>80.11809531909709</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>82.89446949398069</v>
+        <v>102.1203552904373</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>84.87513800175458</v>
+        <v>39.25880557404724</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>78.14722904704892</v>
+        <v>107.4382150941827</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>43.87188955731772</v>
+        <v>75.54226595811026</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>120.1516448669566</v>
+        <v>85.26427222461439</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>43.51250735202493</v>
+        <v>70.22808552301173</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>71.40791178150135</v>
+        <v>92.33552580820299</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>89.90415689664241</v>
+        <v>121.4015681375306</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>89.75014748656824</v>
+        <v>70.09701079885987</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>56.87595904586839</v>
+        <v>86.35767455356725</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>78.46478771709677</v>
+        <v>87.57882980028181</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>129.6465975756386</v>
+        <v>100.1033115041759</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>95.0115424698424</v>
+        <v>110.9033175875656</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>44.74162132974168</v>
+        <v>69.53579236323986</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>94.10125212639085</v>
+        <v>97.12106057971026</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>96.13031332713119</v>
+        <v>120.2854114355133</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>108.4135422541639</v>
+        <v>97.47532912572318</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>96.71163858481452</v>
+        <v>92.11407978051817</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>91.42856046858321</v>
+        <v>112.5806414223555</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>65.38567563082709</v>
+        <v>92.59050542199454</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>87.54396928812912</v>
+        <v>67.51352101884571</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>97.90649089541787</v>
+        <v>64.07464954966549</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>82.31830711688288</v>
+        <v>89.16440353945117</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>48.02512466691997</v>
+        <v>139.0743296573245</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>57.83272486222746</v>
+        <v>88.89353764625369</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>95.53942586739558</v>
+        <v>91.08161566180377</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>52.33323471930834</v>
+        <v>75.45316319319203</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>66.19494453855495</v>
+        <v>82.38969531369202</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>89.52370195000621</v>
+        <v>70.82791810460967</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>63.37853921725046</v>
+        <v>103.6353503885198</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>37.80346070615821</v>
+        <v>88.30820371487992</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>74.93363755306176</v>
+        <v>81.37157341847816</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>116.4511705114315</v>
+        <v>51.71849329148322</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>108.2852843336286</v>
+        <v>104.4331692235362</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>100.7264965622786</v>
+        <v>72.7218938876839</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>46.77498951897182</v>
+        <v>58.2815220522866</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>39.24634508931185</v>
+        <v>100.4602994874623</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>95.99265532666105</v>
+        <v>91.38391485937277</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>72.9299522644784</v>
+        <v>119.9785656114369</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>106.338952832816</v>
+        <v>74.3695261949651</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>123.4781434892979</v>
+        <v>128.5817795561671</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>76.73373517472713</v>
+        <v>115.747049206218</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>132.6190148274398</v>
+        <v>114.7750850892917</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>94.76851410440587</v>
+        <v>107.9268041785619</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>94.82337499652188</v>
+        <v>101.4847164804836</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>41.80131407792121</v>
+        <v>85.34056172951037</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>117.8155154371495</v>
+        <v>97.53769002357824</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>54.08977259743997</v>
+        <v>98.25863921392158</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>97.12581422364069</v>
+        <v>116.3403159793441</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>77.90414639127016</v>
+        <v>62.37143755284925</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>114.3738291751192</v>
+        <v>99.87264570054248</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>106.5981369993515</v>
+        <v>94.62833680639423</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>98.35334266591832</v>
+        <v>70.27079126742612</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>117.3137405417824</v>
+        <v>61.77633962042519</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>65.74823276164626</v>
+        <v>124.0249329415454</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>84.2975431669658</v>
+        <v>98.74390756378874</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>91.96476435991002</v>
+        <v>66.58323790169123</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>89.32713290168398</v>
+        <v>91.09345375892104</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>105.8417447972754</v>
+        <v>44.8961524711036</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>49.81527748498763</v>
+        <v>86.78993549916828</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>102.3054253668338</v>
+        <v>85.21155849587201</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>94.15482399195538</v>
+        <v>106.8486821142452</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>133.1667637158496</v>
+        <v>99.76591151447958</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>149.2814797833362</v>
+        <v>110.9677378761207</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>60.15534821503214</v>
+        <v>98.08990817962456</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>116.0700767814272</v>
+        <v>57.7483902048042</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>58.49667912148501</v>
+        <v>124.0702370692451</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>92.14791948130852</v>
+        <v>50.56159887709091</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>98.86519729989921</v>
+        <v>95.14538739059927</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>117.2138784096529</v>
+        <v>99.30503256578255</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>71.1563655131465</v>
+        <v>70.78239230657294</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>80.39901743756491</v>
+        <v>91.65876745700315</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>84.34300007982934</v>
+        <v>54.01205976462653</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>108.8541192839552</v>
+        <v>98.85661329180903</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>72.0940153212088</v>
+        <v>95.3739694996931</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>63.99685833595181</v>
+        <v>135.0348915191582</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>107.6430615488268</v>
+        <v>90.43470045257826</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>97.99995243195144</v>
+        <v>103.1134028919496</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>109.1344173326549</v>
+        <v>100.3119204457206</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>113.1385397209439</v>
+        <v>75.1315925988862</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>76.65605428592738</v>
+        <v>78.92605985936781</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>105.9723125129562</v>
+        <v>126.9233833841004</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>88.6504270053092</v>
+        <v>75.76017921156202</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>119.6754411346424</v>
+        <v>92.72614629341425</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>51.63087458490902</v>
+        <v>72.67545692797742</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>51.29581190276208</v>
+        <v>69.57148229631272</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>130.3218186471344</v>
+        <v>131.2845664591775</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>94.43816920902988</v>
+        <v>52.42764534743778</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>66.71017140233592</v>
+        <v>132.0996926298043</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>91.59576750252481</v>
+        <v>102.588597930042</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>86.58381211489916</v>
+        <v>106.4720833902108</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>122.2933536073375</v>
+        <v>89.82033063123116</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>76.69211873278726</v>
+        <v>76.98922846973034</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>107.2419141562991</v>
+        <v>97.94483902847699</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>75.05203866059156</v>
+        <v>83.78257232200019</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>54.07704154520236</v>
+        <v>107.987452212091</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>100.2825243579703</v>
+        <v>112.6659238320103</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>129.3368311939805</v>
+        <v>61.21104838568554</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>89.46096190942733</v>
+        <v>71.81230230017256</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>50.63235845950644</v>
+        <v>114.4645824898518</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>77.32883675185344</v>
+        <v>51.1442279318056</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>75.90035058815887</v>
+        <v>79.06750196797779</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>98.17626809319634</v>
+        <v>122.8045209253328</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>91.37880335094536</v>
+        <v>85.72370717809164</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>110.5976957095799</v>
+        <v>90.54871832173212</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>93.48414888618049</v>
+        <v>130.0057210130826</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>60.01266124998406</v>
+        <v>88.69029087572655</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>106.0757387099835</v>
+        <v>90.77618474665168</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>90.98604734422143</v>
+        <v>81.3801917766968</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>129.8526781162389</v>
+        <v>96.27158909750678</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>93.21826692619082</v>
+        <v>111.7093326066226</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>58.79865749580297</v>
+        <v>124.219758838779</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>45.76905400282578</v>
+        <v>73.36947113088311</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>71.63548094699073</v>
+        <v>125.9328684178748</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>98.70314234471346</v>
+        <v>113.9908646642849</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>97.16806124323662</v>
+        <v>76.78730001950456</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>45.7146904512628</v>
+        <v>74.9961419081183</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>89.16596556662472</v>
+        <v>108.1174392469057</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>111.2416489255885</v>
+        <v>122.665853166036</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>72.16522879085451</v>
+        <v>106.7990777743256</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>86.16243769075211</v>
+        <v>94.94003874457027</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>90.1660080321483</v>
+        <v>107.1411807326071</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>69.85232702154552</v>
+        <v>87.73469250099522</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>81.60923923379788</v>
+        <v>68.32038354369398</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>63.64117577048096</v>
+        <v>79.40364764353561</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>118.0498797051573</v>
+        <v>52.9804901123652</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>51.85219102029759</v>
+        <v>85.50611575981308</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>81.1229694552169</v>
+        <v>60.63650492750987</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>83.97296456160952</v>
+        <v>89.11949969698722</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>85.55113796754898</v>
+        <v>98.53594251192931</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>110.7856439309122</v>
+        <v>98.93011848779129</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>103.7556219086519</v>
+        <v>127.825475062566</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>105.2978843258984</v>
+        <v>107.9106196158245</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>88.43069127075506</v>
+        <v>87.66688140200453</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>93.65583015773888</v>
+        <v>68.96443219685472</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>80.36737387867609</v>
+        <v>75.59247985809938</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>104.8986758237934</v>
+        <v>105.7208015821918</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>90.58679480609479</v>
+        <v>113.1582745342753</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>114.2240809043562</v>
+        <v>123.2864404839458</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>109.7338566339341</v>
+        <v>106.5509360941376</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>81.91995673071695</v>
+        <v>67.08304149698819</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>97.0217039688517</v>
+        <v>95.04331173128291</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>129.1332528287872</v>
+        <v>87.76344170876179</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>122.4423072552946</v>
+        <v>59.92983115406484</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>98.63299825158344</v>
+        <v>99.35115564946555</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>77.99632359863958</v>
+        <v>107.3182482968985</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>73.6534323224427</v>
+        <v>89.03638135168578</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>135.443169261846</v>
+        <v>88.60220522768375</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>80.77775175485195</v>
+        <v>71.01053816940387</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>99.69903873956342</v>
+        <v>123.2453057395958</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>96.17572931969029</v>
+        <v>99.76660216865541</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>93.08169961021342</v>
+        <v>75.62544385947879</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>63.04560715173258</v>
+        <v>98.33828554486935</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>79.73142061532853</v>
+        <v>144.928334650785</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>53.06343605779683</v>
+        <v>48.53952189989482</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>59.30976581682426</v>
+        <v>69.5132739941993</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>71.99053940485825</v>
+        <v>42.66554033376116</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>89.27721868987595</v>
+        <v>74.06101297306222</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>124.7955817748425</v>
+        <v>92.06826308031165</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>146.6511759548366</v>
+        <v>99.63320488377562</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>90.32172349481031</v>
+        <v>82.36326314746826</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>87.2875591782594</v>
+        <v>92.21795838322198</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>72.99926974161149</v>
+        <v>67.15924034289816</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>120.1838250027877</v>
+        <v>90.3809117524095</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>145.0883573764612</v>
+        <v>88.34647324786232</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>58.90777704447767</v>
+        <v>104.0705011484492</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>51.24475645944376</v>
+        <v>84.8089249937546</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>74.21637032452533</v>
+        <v>97.02749278875426</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>120.2188519577273</v>
+        <v>112.1622087076648</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>101.2685846061019</v>
+        <v>57.75704224014832</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>89.88439579670187</v>
+        <v>94.09427568956444</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>102.0144612155753</v>
+        <v>118.3754054396474</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>92.54673027825605</v>
+        <v>83.08739869557235</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>106.1694572204771</v>
+        <v>53.01389266533671</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>71.70059768805211</v>
+        <v>85.16610264297137</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>134.9086734407625</v>
+        <v>68.89512364303654</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>110.5110611165007</v>
+        <v>73.5186017694266</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>110.1208704750769</v>
+        <v>92.48636554275922</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>102.7431065707677</v>
+        <v>72.8774258497362</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>73.1774918676596</v>
+        <v>105.2612843506194</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>74.27904781170648</v>
+        <v>110.6808037302455</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>70.09567543983704</v>
+        <v>79.19042070931067</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>82.79610512598644</v>
+        <v>102.8421118811325</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>71.58064664237081</v>
+        <v>92.32978537762912</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>72.15681105584133</v>
+        <v>67.29311932687968</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>103.342461481987</v>
+        <v>101.7515341447173</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>100.8253223333895</v>
+        <v>81.34107125602546</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>74.00038180902014</v>
+        <v>163.3721949140693</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>78.83622486496601</v>
+        <v>68.5617931294227</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>99.18485313483592</v>
+        <v>118.6370383263898</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>63.06090898154062</v>
+        <v>97.68104361058364</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>129.8117779949664</v>
+        <v>75.90860301511162</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>101.2039184689992</v>
+        <v>98.55479476335658</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>74.4401594261348</v>
+        <v>64.04611384801194</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>137.1389789437264</v>
+        <v>107.8434241760177</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>73.11481787975667</v>
+        <v>72.25860960984265</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>77.41586675036424</v>
+        <v>99.52437112725345</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>49.17557178467477</v>
+        <v>75.38064923796435</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>102.8157797145938</v>
+        <v>74.78337850822243</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>111.430454900737</v>
+        <v>105.5034091624979</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>109.8139556175335</v>
+        <v>51.70248576520673</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>101.2925288277398</v>
+        <v>48.51926328985547</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>95.0219834225407</v>
+        <v>108.566576903504</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>78.32866295027701</v>
+        <v>111.399006481381</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>88.76094130375583</v>
+        <v>94.16248899505779</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>91.1952628983838</v>
+        <v>71.74905581355709</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>74.44827592404567</v>
+        <v>94.02117885078377</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>86.33895550265952</v>
+        <v>79.35185344699227</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>123.4886982188268</v>
+        <v>80.75059825485104</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>84.47746974327492</v>
+        <v>111.0499657452284</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>83.71823771462657</v>
+        <v>117.4641804439743</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>80.37076953222814</v>
+        <v>45.61386070149607</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>80.94101725910498</v>
+        <v>122.3098776406111</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>88.90712383502876</v>
+        <v>34.69611470450455</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>93.52369860760678</v>
+        <v>125.4951150865782</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>120.8695305073551</v>
+        <v>89.71723719777935</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>112.285868543064</v>
+        <v>92.15660514650554</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>44.41596364875539</v>
+        <v>104.3296303995418</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>93.07000563446017</v>
+        <v>119.2942232393973</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>7.912316101169097</v>
+        <v>47.77242672462408</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>121.9854388676055</v>
+        <v>61.61762712806881</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>94.1067811562059</v>
+        <v>95.67620556062175</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>101.4029325055656</v>
+        <v>130.1296103440444</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>70.31235663423578</v>
+        <v>50.52696272250468</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>93.03529671738498</v>
+        <v>89.00820172369305</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>123.8884163875225</v>
+        <v>63.96960661042452</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>78.09640602594581</v>
+        <v>129.1540305291884</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>96.41832087569328</v>
+        <v>95.48432928960725</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>97.3499247367678</v>
+        <v>97.25420208817339</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>126.9288098715855</v>
+        <v>73.71816310319373</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>81.29498579971161</v>
+        <v>99.39663234204487</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>87.59529506855063</v>
+        <v>123.606230237083</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>105.9801175407707</v>
+        <v>66.32869146031692</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>71.90133660061649</v>
+        <v>89.3953416908452</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>76.07988290193799</v>
+        <v>83.69723538052519</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>101.6634581850803</v>
+        <v>86.19582329468213</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>103.9935343530873</v>
+        <v>97.53183861546965</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>115.0558358932907</v>
+        <v>91.34925356020865</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>59.9887261096299</v>
+        <v>95.53855285647613</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>35.78530874631797</v>
+        <v>91.74035836658557</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>67.43824692707693</v>
+        <v>117.2671957695477</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>28.82705287579869</v>
+        <v>57.48818287124302</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>85.9619193365982</v>
+        <v>48.27777318235381</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>97.43893771790556</v>
+        <v>61.21527707553359</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>84.86477942863773</v>
+        <v>117.5029510042183</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>93.00253559565856</v>
+        <v>97.01724786956191</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>79.06709491704463</v>
+        <v>70.58322674097947</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>61.42815334437402</v>
+        <v>82.86037948056097</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>128.6798278380909</v>
+        <v>110.3020623902036</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>81.4469322828152</v>
+        <v>105.2752869306168</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>69.26552438891493</v>
+        <v>63.8847115892093</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>75.0094020953627</v>
+        <v>74.67708309770582</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>77.25250668308773</v>
+        <v>91.32114177073437</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>96.28941446994709</v>
+        <v>137.3328140583211</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>99.81257953182266</v>
+        <v>93.43194230613418</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>70.66940902377291</v>
+        <v>80.13394780829462</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>83.1552102630712</v>
+        <v>84.72322129757434</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>122.3250901562848</v>
+        <v>70.91193746777239</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>52.08426496530564</v>
+        <v>104.9000367005513</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>117.7176462145253</v>
+        <v>82.49945157862761</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>67.14029993762041</v>
+        <v>98.38936725894955</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>82.05829637052317</v>
+        <v>99.83495852525503</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>87.95592894627201</v>
+        <v>75.83251758066757</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>83.70665230752742</v>
+        <v>126.8508051461574</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>82.13882956939918</v>
+        <v>70.18128048898998</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>62.05262857953569</v>
+        <v>91.95713614734217</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>67.74331276769556</v>
+        <v>50.65775285203267</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>86.57324854281487</v>
+        <v>157.2027958039725</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>106.2698327863576</v>
+        <v>104.3557522861571</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>131.2963965577256</v>
+        <v>43.65959861849703</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>80.72134071208444</v>
+        <v>122.4410174695173</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>109.0755835459583</v>
+        <v>94.31936656752458</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>72.20465376589439</v>
+        <v>75.21278105566975</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>102.3032208140915</v>
+        <v>100.1639832477344</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>112.031932097103</v>
+        <v>93.61933940443177</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>65.35344995865972</v>
+        <v>108.5227825027918</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>101.170042912723</v>
+        <v>123.7221660619868</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>102.8126147802245</v>
+        <v>127.8631782284269</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>51.13771315474777</v>
+        <v>139.9891351572681</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>81.62735885492913</v>
+        <v>66.87763429280179</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>61.7863448817521</v>
+        <v>48.74193521961681</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>107.9827409164298</v>
+        <v>74.85596616784996</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>120.4792143371862</v>
+        <v>114.9973655589887</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>74.49716012657851</v>
+        <v>102.7157855817827</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>104.2748117008774</v>
+        <v>94.00993880265769</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>98.10769470265255</v>
+        <v>85.16267113282625</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>132.7793932186143</v>
+        <v>100.8847346597676</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>110.6702063442542</v>
+        <v>102.5042840356232</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>82.99432392006646</v>
+        <v>132.5895533372749</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>107.2394096361257</v>
+        <v>103.804439858352</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>85.08146107007256</v>
+        <v>107.5877971277343</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>60.21233816966274</v>
+        <v>88.99603016985643</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>74.33199032593681</v>
+        <v>70.18345507270443</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>104.2789716496621</v>
+        <v>128.5124300920567</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>81.53469800051352</v>
+        <v>78.93642284425755</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>81.9613175640098</v>
+        <v>111.2131107485243</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>126.5805466075563</v>
+        <v>102.7912514887612</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>104.9500873118387</v>
+        <v>82.09918604614552</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>103.0376523373662</v>
+        <v>124.9978492327143</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>102.5038721048219</v>
+        <v>95.02017894894368</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>80.62441648837722</v>
+        <v>108.1502121303882</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>119.3807032474802</v>
+        <v>91.25837684110311</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>89.75212648879975</v>
+        <v>118.2933264620712</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>64.70118392121147</v>
+        <v>119.5033854025215</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>51.31654021759044</v>
+        <v>71.84044829939336</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>86.62917737807838</v>
+        <v>154.6864603457644</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>103.4089597322164</v>
+        <v>95.17382507827973</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>73.01946234669086</v>
+        <v>83.01042570377895</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>114.4564026993909</v>
+        <v>83.32704940129305</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>89.88374260217424</v>
+        <v>73.70702854511083</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>95.07913436096771</v>
+        <v>72.94092145450088</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>91.40740086019673</v>
+        <v>53.4989123693149</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>66.50808819510259</v>
+        <v>116.2085913431597</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>85.29512744948266</v>
+        <v>85.03276012087167</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>79.6352835819842</v>
+        <v>94.74217190041048</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>87.59289867976435</v>
+        <v>108.5837321759074</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>107.9168612791425</v>
+        <v>72.13631190786737</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>112.7555623850658</v>
+        <v>88.5546979965178</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>69.55707263589147</v>
+        <v>105.8893937025721</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>79.12381870895653</v>
+        <v>99.47417753721614</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>100.2280348189583</v>
+        <v>54.32708207849964</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>66.53989085440301</v>
+        <v>67.71438369898864</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>50.9630407481615</v>
+        <v>94.37385260599031</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>43.00805044664903</v>
+        <v>55.07428729723733</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>66.96455928195664</v>
+        <v>90.67793103784905</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>126.7961804855909</v>
+        <v>91.06491357798217</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>81.76194323209863</v>
+        <v>86.00418032184191</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>83.92698598037548</v>
+        <v>83.70653526467588</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>88.52857370380755</v>
+        <v>99.20672487206939</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>108.9266946600203</v>
+        <v>121.3596143735121</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>92.7043597119884</v>
+        <v>85.70825351213837</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>108.5625141234831</v>
+        <v>117.0906671405728</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>103.0607504065652</v>
+        <v>103.9564091786204</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>81.50407594897948</v>
+        <v>73.84999070402537</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>92.42826422311576</v>
+        <v>78.72416435197292</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>89.42096806382052</v>
+        <v>93.77489245506668</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>67.66265659764296</v>
+        <v>55.89288077460725</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>88.02704661586074</v>
+        <v>105.1379999751182</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>125.8051523015156</v>
+        <v>106.3179946051934</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>119.2810848545093</v>
+        <v>76.6603525892159</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>71.05396557899525</v>
+        <v>112.8517758052323</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>39.08271133832636</v>
+        <v>91.09933820379112</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>88.06890793410145</v>
+        <v>104.7068634702986</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>70.89986598458158</v>
+        <v>72.43747784551157</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>83.83523685272316</v>
+        <v>44.30154139378079</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>109.2284507083781</v>
+        <v>115.3908405779381</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>99.79333778037541</v>
+        <v>74.87016403876174</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>64.31647324786228</v>
+        <v>69.78156835094816</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>93.99890369886594</v>
+        <v>91.30511688248089</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>98.65427101192637</v>
+        <v>88.45355101460594</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>91.95119316539656</v>
+        <v>79.50072511782149</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>124.599781433374</v>
+        <v>110.9556786373109</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>62.28857862317563</v>
+        <v>76.64601929719663</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>41.82999533227498</v>
+        <v>113.7967138101621</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>89.58722682609776</v>
+        <v>82.12925586754228</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>75.11997549798549</v>
+        <v>64.79891290316854</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>87.26365959751337</v>
+        <v>86.37746275159328</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>118.8256976195524</v>
+        <v>76.68953612143851</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>129.6526977650708</v>
+        <v>82.6385643230963</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>28.45759860970091</v>
+        <v>90.07631616746316</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>60.38693746057516</v>
+        <v>102.7802048676532</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>82.48728317579507</v>
+        <v>58.23935772749935</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>63.36826890746376</v>
+        <v>63.45613053839915</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>78.62501202430207</v>
+        <v>44.04579628456273</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>86.77980985873889</v>
+        <v>95.4607226995584</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>76.72847193425996</v>
+        <v>61.79145723743726</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>66.93268998524333</v>
+        <v>100.6488289179102</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>90.04500643686137</v>
+        <v>124.7328219070711</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>88.10178500817079</v>
+        <v>61.63383333132556</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>107.1025467424341</v>
+        <v>100.0949536648211</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>119.8904759024153</v>
+        <v>110.8101663293486</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>78.93931585995256</v>
+        <v>127.8230399840439</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>49.55784911432831</v>
+        <v>52.18239590726031</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>58.8306704153285</v>
+        <v>81.09250468555912</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>81.66975053378897</v>
+        <v>99.20252059118118</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>79.07210217071305</v>
+        <v>87.28748223557639</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>71.77948967343588</v>
+        <v>140.6320141483443</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>107.4533660689602</v>
+        <v>100.3896373488421</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>70.18091753577457</v>
+        <v>82.77969006248289</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>139.4432519336222</v>
+        <v>78.89514356563805</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>116.0306213485807</v>
+        <v>99.39277016436878</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>67.94264932987831</v>
+        <v>57.21413679513181</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>86.71083581696386</v>
+        <v>105.5517962113985</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>85.14227877077624</v>
+        <v>116.1001876511021</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>81.06113743369536</v>
+        <v>95.72332667270655</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>83.18925245591788</v>
+        <v>62.4677134280884</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>41.76113033440971</v>
+        <v>92.70433266419563</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>60.05661805466596</v>
+        <v>79.85556238506577</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>54.5884995106484</v>
+        <v>85.49246369671313</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>91.29883336903602</v>
+        <v>77.40693365672789</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>83.69399864305993</v>
+        <v>131.5503893454087</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>86.42318328778207</v>
+        <v>88.66553031159138</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>92.9878719036051</v>
+        <v>86.54515209395585</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>92.04044079437813</v>
+        <v>56.31951101872026</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>73.31441440227607</v>
+        <v>111.2203682155126</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>110.6056648006657</v>
+        <v>63.73905047514199</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>125.403590071154</v>
+        <v>82.69800387511128</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>111.7428332432185</v>
+        <v>59.58694135887345</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>96.53540170451788</v>
+        <v>107.8970207722285</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>111.8787321313091</v>
+        <v>76.243447096346</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>64.82657990781568</v>
+        <v>131.2848330827647</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>57.94133631059392</v>
+        <v>89.74698180475428</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>106.5253078203536</v>
+        <v>113.1233465863879</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>59.82554758455689</v>
+        <v>130.8625954888351</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>61.7073092397836</v>
+        <v>88.58140498150658</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>96.04345756821974</v>
+        <v>73.22162265348534</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>77.63919543654291</v>
+        <v>59.79914500240015</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>82.47499173398343</v>
+        <v>70.61291254662983</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>112.0703211099579</v>
+        <v>76.27682700036485</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>52.77209145266114</v>
+        <v>121.1379174995663</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>106.7480930300763</v>
+        <v>99.77540922468863</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>82.89422675588663</v>
+        <v>109.4888316396115</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>111.4447703664745</v>
+        <v>57.65232217935859</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>86.05239673936815</v>
+        <v>131.1789161467146</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>88.42128354625696</v>
+        <v>46.11147100208997</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>96.02225316552845</v>
+        <v>64.20809405681227</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>76.01165264484882</v>
+        <v>112.8382785232004</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>71.65510180539509</v>
+        <v>75.8471487558505</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>104.7423483590014</v>
+        <v>77.40817450038668</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>70.17951021051026</v>
+        <v>92.47573762906289</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>77.51404661102568</v>
+        <v>72.98325363627839</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>77.27818609739627</v>
+        <v>91.60868443936731</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>123.788998436541</v>
+        <v>66.28576395957856</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>73.17298782035711</v>
+        <v>64.26284001421344</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>89.30776524365166</v>
+        <v>97.71294961980128</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>70.81321996897501</v>
+        <v>118.5504206498125</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>106.3640244136489</v>
+        <v>70.66384828841214</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>82.75961505219733</v>
+        <v>80.8736953735223</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>92.75999564678804</v>
+        <v>68.31568969426642</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>102.2386700603318</v>
+        <v>84.21376934750332</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>55.47543110451794</v>
+        <v>82.76819370518064</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>90.22547358596499</v>
+        <v>96.7492157747249</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>72.49403018317466</v>
+        <v>35.9448553024307</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>100.9925083573513</v>
+        <v>86.03010515434268</v>
       </c>
     </row>
   </sheetData>
@@ -31678,16 +31678,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89.49441647184655</v>
+        <v>89.88042161933103</v>
       </c>
       <c r="B2" t="n">
-        <v>89.37405048275225</v>
+        <v>90.4917093871552</v>
       </c>
       <c r="C2" t="n">
-        <v>162.4100054012885</v>
+        <v>163.3721949140693</v>
       </c>
       <c r="D2" t="n">
-        <v>7.912316101169097</v>
+        <v>25.5590757125857</v>
       </c>
       <c r="E2" t="n">
         <v>0.326</v>
